--- a/Jameson etal data/pnas.2305295120.sd02.xlsx
+++ b/Jameson etal data/pnas.2305295120.sd02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Jameson etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA678F-7FB2-C14C-ABCD-E694CC0556D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71C2DD-C326-5644-85D1-5790E21D7291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{7BC43E88-054F-C849-890D-30A72E099ACF}"/>
   </bookViews>
@@ -20,19 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Fig. 2F'!$A$3:$A$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Fig. 2F'!$C$3:$C$31</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Fig. 2F'!$B$3:$B$24</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Fig. 2F'!$C$3:$C$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Fig. 2F'!$B$3:$B$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Fig. 2F'!$C$3:$C$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Fig. 2F'!$C$3:$C$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Fig. 2F'!$A$3:$A$50</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Fig. 2F'!$A$3:$A$50</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Fig. 2F'!$A$3:$A$50</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Fig. 2F'!$A$3:$A$50</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Fig. 2F'!$C$3:$C$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Fig. 2F'!$B$3:$B$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Fig. 2F'!$C$3:$C$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Fig. 2F'!$A$3:$A$50</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -487,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +497,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +523,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -650,7 +646,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -735,7 +731,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3068,7 +3064,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3392,16 +3388,16 @@
       <c r="C11" s="3">
         <v>11.11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>18.48</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>20.48</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="8">
         <v>7.9409999999999998</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -3732,7 +3728,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4056,16 +4052,17 @@
       <c r="C11" s="3">
         <v>13.33333333</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>28.44</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>22.88</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="8">
         <v>5.585</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -4251,7 +4248,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="F11:H11"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4575,16 +4572,16 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>21.95</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>17.420000000000002</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="8">
         <v>4.4859999999999998</v>
       </c>
       <c r="J11" s="4" t="s">
